--- a/biology/Botanique/Parc_Brackmann/Parc_Brackmann.xlsx
+++ b/biology/Botanique/Parc_Brackmann/Parc_Brackmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Brackmann (estonien : Brackmanni park) est un parc de Pärnu en Estonie.
 </t>
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé au centre de Pärnu, le parc Brackmann porte le nom d'Oskar Brackmann[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé au centre de Pärnu, le parc Brackmann porte le nom d'Oskar Brackmann.
 Le parc a été construit dans les années 1930 sur le site de l'ancienne douve de Pärnu. 
-Le parc s'appelait alors populairement le parc Päts, car une statue de Konstantin Päts devait y être érigée[2].
-Dans les années 1970, le parc a été relié au parc Koidula limitrophe, lorsque la section de la rue Hospidal tanav entre les rues Lõuna tänav et Ringi tänav a été fermée[3].
-Le mémorial d'Oskar Brackmann érigé en 1991 est situé dans le parc[1],[3].
+Le parc s'appelait alors populairement le parc Päts, car une statue de Konstantin Päts devait y être érigée.
+Dans les années 1970, le parc a été relié au parc Koidula limitrophe, lorsque la section de la rue Hospidal tanav entre les rues Lõuna tänav et Ringi tänav a été fermée.
+Le mémorial d'Oskar Brackmann érigé en 1991 est situé dans le parc,.
 </t>
         </is>
       </c>
